--- a/Data/g19.8.xlsx
+++ b/Data/g19.8.xlsx
@@ -1,79 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C19933-62A4-453C-A64F-8CAF800F16FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
-  <si>
-    <t>Região</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Nordeste</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Variável</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Estupro feminino</t>
-  </si>
-  <si>
-    <t>Posição relativamente às demais UF</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,45 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,168 +420,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D2" s="3">
-        <v>75.222664001707173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D3" s="3">
-        <v>80.189160976696613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45291</v>
-      </c>
-      <c r="D4" s="3">
-        <v>76.767879114340516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43.289678951422864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D6" s="3">
-        <v>48.464755135642186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45291</v>
-      </c>
-      <c r="D7" s="3">
-        <v>46.382730684857975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3">
-        <v>58.064766580464315</v>
-      </c>
-      <c r="E8">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Região</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Posição relativamente às demais UF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>63.24399134814636</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>53.50687459349901</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>66.45818522832121</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>72.50843253217975</v>
+      </c>
+      <c r="E5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="3">
-        <v>62.797561784367737</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45291</v>
-      </c>
-      <c r="D10" s="3">
-        <v>66.327156058786812</v>
-      </c>
-      <c r="E10">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>77.23518823831924</v>
+      </c>
+      <c r="E6" t="n">
         <v>13</v>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>14.27480223254125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>42.67808824599027</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>41.77565665513313</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>48.6614511338932</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>54.80738440498453</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>53.14890994983053</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10.87549906543884</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>72.03359659035928</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01-01-2020</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>64.34397893123698</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01-01-2021</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>81.58661386978027</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01-01-2022</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>88.90210514116234</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01-01-2023</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>88.21755096549306</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>01-01-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>17.55581364556214</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g19.8.xlsx
+++ b/Data/g19.8.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Variável</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -463,140 +463,128 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-01-2019</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63.24399134814636</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12</v>
-      </c>
+        <v>64.0314125561343</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-01-2020</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53.50687459349901</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16</v>
-      </c>
+        <v>71.02509020224041</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66.45818522832121</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13</v>
-      </c>
+        <v>75.22266400170717</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-01-2022</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72.50843253217975</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14</v>
-      </c>
+        <v>81.12479011246975</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01-01-2023</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>77.23518823831924</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13</v>
-      </c>
+        <v>80.39879709505792</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01-01-2024</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.27480223254125</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14</v>
-      </c>
+        <v>76.32420417450803</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,16 +594,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-01-2019</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42.67808824599027</v>
+        <v>31.14311660264679</v>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
@@ -627,16 +615,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01-01-2020</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41.77565665513313</v>
+        <v>38.36656737552258</v>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
@@ -648,16 +636,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>48.6614511338932</v>
+        <v>43.28967895142286</v>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
@@ -669,16 +657,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01-01-2022</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54.80738440498453</v>
+        <v>48.50156730292592</v>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
@@ -690,16 +678,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01-01-2023</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53.14890994983053</v>
+        <v>46.90130903274621</v>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
@@ -711,144 +699,156 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01-01-2024</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.87549906543884</v>
+        <v>46.23829758959072</v>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01-01-2019</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72.03359659035928</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
+        <v>16.39461237360009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01-01-2020</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64.34397893123698</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>56.28371028275623</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01-01-2021</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81.58661386978027</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>58.0647665804643</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01-01-2022</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>88.90210514116234</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>62.79756178436774</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01-01-2023</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>88.21755096549306</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>66.32715605878681</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Estupro</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01-01-2024</t>
+          <t>Estupro</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17.55581364556214</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>52.74316814924625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g19.8.xlsx
+++ b/Data/g19.8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Posição relativamente às demais UF</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Faltam dados para todos os Estados</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,9 +482,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64.0314125561343</v>
+        <v>33.91451867724994</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -489,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,9 +506,12 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71.02509020224041</v>
+        <v>42.41655859469101</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -510,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -519,9 +530,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75.22266400170717</v>
+        <v>47.38105218423503</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -531,7 +545,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -540,9 +554,12 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81.12479011246975</v>
+        <v>64.0314125561343</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -552,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,9 +578,12 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80.39879709505792</v>
+        <v>71.02509020224041</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,7 +593,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -582,19 +602,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76.32420417450803</v>
+        <v>61.25624650667709</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -603,19 +626,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31.14311660264679</v>
+        <v>75.22266400170717</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -624,19 +650,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>38.36656737552258</v>
+        <v>81.12479011246975</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -645,19 +674,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43.28967895142286</v>
+        <v>80.39879709505792</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -666,9 +698,12 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>48.50156730292592</v>
+        <v>76.32420417450803</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -678,7 +713,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -687,9 +722,12 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46.90130903274621</v>
+        <v>23.29666263640006</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -699,7 +737,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -708,19 +746,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46.23829758959072</v>
+        <v>24.68711897104455</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -729,21 +770,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16.39461237360009</v>
-      </c>
-      <c r="E14" t="n">
-        <v>26</v>
+        <v>27.30159143216839</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -752,21 +794,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56.28371028275623</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14</v>
+        <v>31.14311660264679</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -775,21 +818,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58.0647665804643</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14</v>
+        <v>38.36656737552258</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -798,21 +842,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62.79756178436774</v>
-      </c>
-      <c r="E17" t="n">
-        <v>15</v>
+        <v>37.33696147932449</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -821,33 +866,343 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>66.32715605878681</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13</v>
+        <v>43.28967895142286</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>48.50156730292592</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>46.90130903274621</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>46.23829758959072</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>25</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>16.39461237360009</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>56.28371028275623</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>47.17492227806533</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>58.0647665804643</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>62.79756178436774</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>66.32715605878681</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Estupro</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>52.74316814924625</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E31" t="n">
         <v>16</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g19.8.xlsx
+++ b/Data/g19.8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33.91451867724994</v>
+        <v>23.51597416558056</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42.41655859469101</v>
+        <v>29.68688409921749</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47.38105218423503</v>
+        <v>31.95310127371981</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64.0314125561343</v>
+        <v>40.39619814149729</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71.02509020224041</v>
+        <v>43.73582517596133</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61.25624650667709</v>
+        <v>31.08082262272347</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75.22266400170717</v>
+        <v>40.37773101085241</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81.12479011246975</v>
+        <v>35.68146378041867</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80.39879709505792</v>
+        <v>41.76481125506481</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76.32420417450803</v>
+        <v>38.22179512271354</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -708,12 +708,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -722,11 +722,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23.29666263640006</v>
+        <v>13.22637324315908</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -737,7 +737,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24.68711897104455</v>
+        <v>12.70230727830731</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
@@ -761,7 +761,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27.30159143216839</v>
+        <v>14.63737214627904</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
@@ -785,7 +785,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31.14311660264679</v>
+        <v>14.84706792354145</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -809,7 +809,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>38.36656737552258</v>
+        <v>15.02477095090394</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
@@ -833,7 +833,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -842,11 +842,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37.33696147932449</v>
+        <v>17.86668182339003</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -857,7 +857,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43.28967895142286</v>
+        <v>16.36815773591297</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -881,7 +881,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48.50156730292592</v>
+        <v>18.080423162261</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
@@ -905,7 +905,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46.90130903274621</v>
+        <v>17.06753006920804</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
@@ -929,7 +929,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46.23829758959072</v>
+        <v>18.44416896158795</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
@@ -948,12 +948,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -962,24 +962,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>24</v>
-      </c>
+        <v>20.42957623803085</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -988,13 +986,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>25</v>
-      </c>
+        <v>6.773419516901637</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1005,7 +1001,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1031,7 +1027,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1040,13 +1036,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16.39461237360009</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1066,13 +1062,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>56.28371028275623</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>25.5</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1083,7 +1079,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1092,13 +1088,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>47.17492227806533</v>
+        <v>1.529031205827987</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1109,7 +1105,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1118,10 +1114,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58.0647665804643</v>
+        <v>12.70379708923197</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1135,7 +1131,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1144,13 +1140,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>62.79756178436774</v>
+        <v>11.91875244834513</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1161,7 +1157,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1170,10 +1166,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66.32715605878681</v>
+        <v>11.72858727514357</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1187,21 +1183,99 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>13.67300237025999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15.99320654049082</v>
+      </c>
+      <c r="E32" t="n">
+        <v>19</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Estupro</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>52.74316814924625</v>
-      </c>
-      <c r="E31" t="n">
-        <v>16</v>
-      </c>
-      <c r="F31" t="b">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>13.9306383050681</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Estupro</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9.267759143722971</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11</v>
+      </c>
+      <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/g19.8.xlsx
+++ b/Data/g19.8.xlsx
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.22637324315908</v>
+        <v>13.26106189327212</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">

--- a/Data/g19.8.xlsx
+++ b/Data/g19.8.xlsx
@@ -602,11 +602,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31.08082262272347</v>
+        <v>31.80303075250784</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40.37773101085241</v>
+        <v>37.14197833583991</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.26106189327212</v>
+        <v>14.87776628947827</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -870,7 +870,7 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6.773419516901637</v>
+        <v>8.009948565874655</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
@@ -1143,10 +1143,10 @@
         <v>11.91875244834513</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9.267759143722971</v>
+        <v>11.10533207739218</v>
       </c>
       <c r="E34" t="n">
         <v>11</v>

--- a/Data/g19.8.xlsx
+++ b/Data/g19.8.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23.51597416558056</v>
+        <v>22.78334256379571</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="b">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29.68688409921749</v>
+        <v>28.92474493472847</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="b">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31.95310127371981</v>
+        <v>31.12178705170151</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="b">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40.39619814149729</v>
+        <v>39.52454006883195</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43.73582517596133</v>
+        <v>42.71630314916037</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="b">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31.80303075250784</v>
+        <v>30.84329163621558</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="b">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37.14197833583991</v>
+        <v>36.07695638047843</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="b">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35.68146378041867</v>
+        <v>34.65839311943359</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41.76481125506481</v>
+        <v>40.59231151753176</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="b">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38.22179512271354</v>
+        <v>37.12072030853368</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="b">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14.87776628947827</v>
+        <v>16.57853340843213</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="b">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.70230727830731</v>
+        <v>10.50441247295275</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="b">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14.63737214627904</v>
+        <v>12.35095465281197</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="b">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14.84706792354145</v>
+        <v>12.35312525748655</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="b">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15.02477095090394</v>
+        <v>12.40979673290794</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="b">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17.86668182339003</v>
+        <v>14.80811574298714</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="b">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16.36815773591297</v>
+        <v>13.48894038703619</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="b">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.080423162261</v>
+        <v>14.88535729617655</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="b">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17.06753006920804</v>
+        <v>13.99831808625282</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="b">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.44416896158795</v>
+        <v>14.92666974898879</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="b">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20.42957623803085</v>
+        <v>17.12635179549126</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="b">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8.009948565874655</v>
+        <v>8.928107994825487</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="b">
@@ -1117,7 +1117,7 @@
         <v>12.70379708923197</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>11.91875244834513</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>11.72858727514357</v>
       </c>
       <c r="E30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>13.67300237025999</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>15.99320654049082</v>
       </c>
       <c r="E32" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>13.9306383050681</v>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11.10533207739218</v>
+        <v>11.9042768311614</v>
       </c>
       <c r="E34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
